--- a/posesiones/1485997.xlsx
+++ b/posesiones/1485997.xlsx
@@ -1865,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>17</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>22</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>7</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>15</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>16</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20">
         <v>37</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>13</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2918,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>12</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3021,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>8</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3215,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R30">
         <v>12</v>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3315,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R32">
         <v>17</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>9</v>
@@ -3471,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35">
         <v>23</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3571,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R37">
         <v>9</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R41">
         <v>15</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3868,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R43">
         <v>16</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R44">
         <v>12</v>
@@ -3974,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45">
         <v>16</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R51">
         <v>19</v>
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R52">
         <v>12</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4418,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R54">
         <v>7</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R57">
         <v>27</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4712,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R60">
         <v>11</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R64">
         <v>15</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5009,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R66">
         <v>11</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5112,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R68">
         <v>12</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R73">
         <v>7</v>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>9</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R76">
         <v>7</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R78">
         <v>11</v>
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R80">
         <v>12</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5809,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R82">
         <v>21</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5909,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R84">
         <v>15</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R88">
         <v>30</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6303,7 +6303,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R92">
         <v>21</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6403,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R94">
         <v>10</v>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R98">
         <v>12</v>
@@ -6650,7 +6650,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R99">
         <v>1</v>
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R100">
         <v>32</v>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6806,7 +6806,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R102">
         <v>7</v>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7003,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R106">
         <v>13</v>
@@ -7047,10 +7047,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7279,10 +7279,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R113">
         <v>11</v>
@@ -7385,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R114">
         <v>14</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7676,7 +7676,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R120">
         <v>9</v>
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7779,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R122">
         <v>13</v>
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7976,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R126">
         <v>25</v>
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8079,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R128">
         <v>15</v>
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8179,7 +8179,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R130">
         <v>17</v>
@@ -8229,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8279,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R132">
         <v>8</v>
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8423,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8517,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R139">
         <v>25</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8717,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R141">
         <v>18</v>
@@ -8767,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R143">
         <v>22</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8917,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R145">
         <v>16</v>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R147">
         <v>21</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9123,7 +9123,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R149">
         <v>11</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R157">
         <v>23</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9658,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R160">
         <v>25</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9761,7 +9761,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R162">
         <v>7</v>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9861,7 +9861,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R164">
         <v>22</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9961,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R166">
         <v>24</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10061,7 +10061,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R168">
         <v>24</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10161,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R170">
         <v>22</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10493,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10540,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R179">
         <v>8</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10740,7 +10740,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R182">
         <v>8</v>
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R183">
         <v>14</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11219,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11266,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11313,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11363,7 +11363,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R195">
         <v>39</v>
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R197">
         <v>13</v>
@@ -11513,7 +11513,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11563,7 +11563,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R199">
         <v>21</v>
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11663,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R201">
         <v>17</v>
@@ -11713,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11804,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11998,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R208">
         <v>17</v>
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R209">
         <v>6</v>
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12198,7 +12198,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R212">
         <v>14</v>
@@ -12248,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12295,7 +12295,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12348,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R215">
         <v>4</v>
@@ -12398,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12448,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R217">
         <v>16</v>
@@ -12498,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12548,7 +12548,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R219">
         <v>13</v>
@@ -12595,7 +12595,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12642,7 +12642,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12739,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R223">
         <v>14</v>
@@ -12792,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12842,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R225">
         <v>19</v>
@@ -12892,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R227">
         <v>4</v>
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13042,7 +13042,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R229">
         <v>0</v>
@@ -13086,10 +13086,10 @@
         <v>1</v>
       </c>
       <c r="P230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q230">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13324,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13371,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13412,10 +13412,10 @@
         <v>1</v>
       </c>
       <c r="P237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q237">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13465,7 +13465,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R238">
         <v>9</v>
@@ -13515,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13565,7 +13565,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R240">
         <v>13</v>
@@ -13615,7 +13615,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13756,7 +13756,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R245">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13953,7 +13953,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R248">
         <v>14</v>
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14056,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R250">
         <v>6</v>
@@ -14106,7 +14106,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14203,7 +14203,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R253">
         <v>18</v>
@@ -14256,7 +14256,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14306,7 +14306,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R255">
         <v>6</v>
@@ -14356,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14406,7 +14406,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R257">
         <v>20</v>
@@ -14459,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R258">
         <v>22</v>
@@ -14512,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14606,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14653,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14700,7 +14700,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14747,7 +14747,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14797,7 +14797,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R265">
         <v>5</v>
@@ -14850,7 +14850,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R266">
         <v>15</v>
@@ -14900,7 +14900,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14950,7 +14950,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R268">
         <v>3</v>
@@ -14997,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15047,7 +15047,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R270">
         <v>16</v>
@@ -15100,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15150,7 +15150,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R272">
         <v>8</v>
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R273">
         <v>22</v>
@@ -15253,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15303,7 +15303,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R275">
         <v>23</v>
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15403,7 +15403,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15453,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15500,7 +15500,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15547,7 +15547,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15594,7 +15594,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15644,7 +15644,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R282">
         <v>10</v>
@@ -15697,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R284">
         <v>24</v>
@@ -15797,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15847,7 +15847,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R286">
         <v>8</v>
@@ -15900,7 +15900,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R287">
         <v>17</v>
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16003,7 +16003,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R289">
         <v>15</v>
@@ -16056,7 +16056,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16103,7 +16103,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16153,7 +16153,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16200,7 +16200,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16247,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16294,7 +16294,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16344,7 +16344,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R296">
         <v>9</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R297">
         <v>20</v>
@@ -16447,7 +16447,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16497,7 +16497,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R299">
         <v>15</v>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16597,7 +16597,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R301">
         <v>7</v>
@@ -16647,7 +16647,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16697,7 +16697,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R303">
         <v>22</v>
@@ -16750,7 +16750,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16800,7 +16800,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R305">
         <v>17</v>
@@ -16850,7 +16850,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16900,7 +16900,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R307">
         <v>4</v>
@@ -16950,7 +16950,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17044,7 +17044,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17091,7 +17091,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17138,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17185,7 +17185,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17279,7 +17279,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17326,7 +17326,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17376,7 +17376,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R317">
         <v>24</v>
@@ -17426,7 +17426,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17476,7 +17476,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R319">
         <v>17</v>
@@ -17526,7 +17526,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17576,7 +17576,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R321">
         <v>21</v>
@@ -17629,7 +17629,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17679,7 +17679,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R323">
         <v>7</v>
@@ -17729,7 +17729,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17779,7 +17779,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R325">
         <v>7</v>
@@ -17829,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17879,7 +17879,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R327">
         <v>16</v>
@@ -17929,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17976,7 +17976,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18023,7 +18023,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18070,7 +18070,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18117,7 +18117,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18164,7 +18164,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18211,7 +18211,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18261,7 +18261,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R335">
         <v>6</v>
@@ -18314,7 +18314,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R336">
         <v>18</v>
@@ -18367,7 +18367,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R337">
         <v>17</v>
@@ -18417,7 +18417,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18464,7 +18464,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18511,7 +18511,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18558,7 +18558,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18605,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18655,7 +18655,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R343">
         <v>20</v>
@@ -18705,7 +18705,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18752,7 +18752,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18802,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R346">
         <v>20</v>
@@ -18852,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18899,7 +18899,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18946,7 +18946,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18993,7 +18993,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19043,7 +19043,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R351">
         <v>1</v>
@@ -19096,7 +19096,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R352">
         <v>7</v>
@@ -19146,7 +19146,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19196,7 +19196,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R354">
         <v>16</v>
@@ -19246,7 +19246,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19296,7 +19296,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R356">
         <v>16</v>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19443,7 +19443,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19490,7 +19490,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19537,7 +19537,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19587,7 +19587,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R362">
         <v>11</v>
@@ -19637,7 +19637,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19678,10 +19678,10 @@
         <v>1</v>
       </c>
       <c r="P364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q364">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19722,10 +19722,10 @@
         <v>1</v>
       </c>
       <c r="P365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q365">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19775,7 +19775,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R366">
         <v>14</v>
@@ -19828,7 +19828,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R367">
         <v>26</v>
@@ -19878,7 +19878,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19925,7 +19925,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19972,7 +19972,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20022,7 +20022,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R371">
         <v>34</v>
@@ -20075,7 +20075,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20125,7 +20125,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R373">
         <v>7</v>
@@ -20175,7 +20175,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20222,7 +20222,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20272,7 +20272,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R376">
         <v>0</v>
@@ -20325,7 +20325,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20372,7 +20372,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20422,7 +20422,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20472,7 +20472,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R380">
         <v>12</v>
@@ -20525,7 +20525,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R381">
         <v>18</v>
@@ -20575,7 +20575,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20622,7 +20622,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20719,7 +20719,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R385">
         <v>25</v>
@@ -20769,7 +20769,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20816,7 +20816,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20866,7 +20866,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R388">
         <v>19</v>
@@ -20916,7 +20916,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20966,7 +20966,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R390">
         <v>15</v>
@@ -21019,7 +21019,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R391">
         <v>18</v>
@@ -21069,7 +21069,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21119,7 +21119,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R393">
         <v>17</v>
@@ -21169,7 +21169,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21219,7 +21219,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R395">
         <v>4</v>
@@ -21272,7 +21272,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R396">
         <v>16</v>
@@ -21325,7 +21325,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21375,7 +21375,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R398">
         <v>4</v>
@@ -21425,7 +21425,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21472,7 +21472,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21522,7 +21522,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R401">
         <v>14</v>
@@ -21572,7 +21572,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21622,7 +21622,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R403">
         <v>14</v>
@@ -21675,7 +21675,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R404">
         <v>5</v>
@@ -21728,7 +21728,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R405">
         <v>11</v>
@@ -21778,7 +21778,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21875,7 +21875,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R408">
         <v>31</v>
@@ -21928,7 +21928,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21978,7 +21978,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R410">
         <v>9</v>
@@ -22031,7 +22031,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22078,7 +22078,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22128,7 +22128,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22178,7 +22178,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R414">
         <v>24</v>
@@ -22228,7 +22228,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22278,7 +22278,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R416">
         <v>10</v>
@@ -22328,7 +22328,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22378,7 +22378,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R418">
         <v>17</v>
@@ -22431,7 +22431,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22481,7 +22481,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R420">
         <v>7</v>
@@ -22534,7 +22534,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22581,7 +22581,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22628,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22678,7 +22678,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R424">
         <v>10</v>
@@ -22731,7 +22731,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22781,7 +22781,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R426">
         <v>15</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22881,7 +22881,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R428">
         <v>18</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22978,7 +22978,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23025,7 +23025,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23072,7 +23072,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23119,7 +23119,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23166,7 +23166,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23216,7 +23216,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R435">
         <v>21</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23313,7 +23313,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23360,7 +23360,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23407,7 +23407,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23457,7 +23457,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R440">
         <v>11</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23560,7 +23560,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R442">
         <v>17</v>
@@ -23610,7 +23610,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23654,7 +23654,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23748,7 +23748,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23798,7 +23798,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R447">
         <v>14</v>
@@ -23848,7 +23848,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23898,7 +23898,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R449">
         <v>25</v>
@@ -23951,7 +23951,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R450">
         <v>17</v>
@@ -24001,7 +24001,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24051,7 +24051,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R452">
         <v>4</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24195,7 +24195,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R455">
         <v>11</v>
@@ -24245,7 +24245,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24295,7 +24295,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R457">
         <v>25</v>
@@ -24345,7 +24345,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24392,7 +24392,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24439,7 +24439,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24486,7 +24486,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24536,7 +24536,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R462">
         <v>3</v>
@@ -24589,7 +24589,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R463">
         <v>8</v>
@@ -24639,7 +24639,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24777,7 +24777,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24827,7 +24827,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R468">
         <v>9</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24927,7 +24927,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25021,7 +25021,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25068,7 +25068,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25115,7 +25115,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25165,7 +25165,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R475">
         <v>0</v>
@@ -25212,7 +25212,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25262,7 +25262,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R477">
         <v>4</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25365,7 +25365,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R479">
         <v>5</v>
@@ -25415,7 +25415,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25465,7 +25465,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R481">
         <v>3</v>
@@ -25521,7 +25521,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R482">
         <v>3</v>
@@ -25565,10 +25565,10 @@
         <v>1</v>
       </c>
       <c r="P483" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q483">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
